--- a/dist/latest_version/drug_db.xlsx
+++ b/dist/latest_version/drug_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/368813f78804d80c/Desktop/Project AtBS/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/368813f78804d80c/Desktop/Project-AtBS-Live/dist/latest_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_B5015F4DFF7835213F2D4C62DDAE01657979CFF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3050B31-AF6E-4135-BE38-9A72E980310E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_B5015F4DFF7835213F2D4C62DDAE01657979CFF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E4BB8DB-A834-49F8-8BAA-834D99C19BAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="1" r:id="rId1"/>
@@ -2496,17 +2496,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2864,8 +2854,8 @@
   <dimension ref="A1:C430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3620,7 +3610,7 @@
         <v>447</v>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3631,7 +3621,7 @@
         <v>448</v>
       </c>
       <c r="C69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3939,7 +3929,7 @@
         <v>463</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4016,7 +4006,7 @@
         <v>653</v>
       </c>
       <c r="C104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4038,7 +4028,7 @@
         <v>652</v>
       </c>
       <c r="C106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4258,7 +4248,7 @@
         <v>675</v>
       </c>
       <c r="C126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -7612,10 +7602,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dist/latest_version/drug_db.xlsx
+++ b/dist/latest_version/drug_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/368813f78804d80c/Desktop/Project-AtBS-Live/dist/latest_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_B5015F4DFF7835213F2D4C62DDAE01657979CFF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E4BB8DB-A834-49F8-8BAA-834D99C19BAC}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_B5015F4DFF7835213F2D4C62DDAE01657979CFF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4EC5D39-8C0B-44FE-A058-57347C6878B8}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="1" r:id="rId1"/>
@@ -2528,6 +2528,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2854,8 +2858,8 @@
   <dimension ref="A1:C430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G394" sqref="G394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7152,7 +7156,7 @@
         <v>639</v>
       </c>
       <c r="C390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -7163,7 +7167,7 @@
         <v>637</v>
       </c>
       <c r="C391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
